--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2372.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2372.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.8847816916458845</v>
+        <v>0.9720592498779297</v>
       </c>
       <c r="B1">
-        <v>1.594700773732182</v>
+        <v>1.91448438167572</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>5.088549613952637</v>
       </c>
       <c r="D1">
-        <v>-1</v>
+        <v>1.64069652557373</v>
       </c>
       <c r="E1">
-        <v>1.176485326481209</v>
+        <v>0.7601715922355652</v>
       </c>
     </row>
   </sheetData>
